--- a/biology/Médecine/Hématochézie/Hématochézie.xlsx
+++ b/biology/Médecine/Hématochézie/Hématochézie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9matoch%C3%A9zie</t>
+          <t>Hématochézie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce terme peu utilisé désigne un saignement rouge issu de l’anus, fait de sang non digéré et accompagné de selles. En pratique, on la confond souvent avec le terme rectorragie. Or une rectorragie est un saignement rougeâtre provenant du rectum et n'est pas mélangée aux selles tandis qu'une hématochézie est mélangée aux selles et n'informe pas sur le site du saignement.
 Une hématochézie est l'émission, par l'anus, de sang rouge non digéré. L'hématochézie caractérise les hémorragies digestives basses, mais peut également se voir dans les hémorragies digestives hautes abondantes.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9matoch%C3%A9zie</t>
+          <t>Hématochézie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Les causes d'hématochézie sont multiples.
 Les plus fréquentes sont d'origine basse :
@@ -523,7 +537,7 @@
 causes proctologiques : fissure anale, carcinome épidermoïde de l’anus, lésions de grattage, ulcération rectale thermométrique ;
 maladies inflammatoires : rectocolite hémorragique ; maladie de Crohn ;
 rectite infectieuse ou iatrogène : après radiothérapie, suppositoire d'anti-inflammatoire.
-Hémorragie diverticulaire : une complication de la diverticulose[1].
+Hémorragie diverticulaire : une complication de la diverticulose.
 Mais toute hémorragie haute abondante peut également être à l'origine d'hématochézie, d'autant plus que le transit intestinal est rapide :
 Cancer colique ;
 ulcère gastro-duodénal.</t>
@@ -536,7 +550,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%A9matoch%C3%A9zie</t>
+          <t>Hématochézie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -554,7 +568,9 @@
           <t>Examens</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Devant une hématochézie, les examens les plus fréquemment pratiqués sont :
 Le toucher rectal pour différencier une hématochézie d'un méléna ;
